--- a/medicine/Mort/Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963/Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963.xlsx
+++ b/medicine/Mort/Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963/Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pertes_militaires_fran%C3%A7aises_en_op%C3%A9rations_ext%C3%A9rieures_depuis_1963</t>
+          <t>Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pertes militaires françaises en opérations extérieures depuis 1963 sont estimées, en 2013, à 774 militaires des forces armées françaises 
 « morts au service de la France » lors des opérations extérieures recensées à cette date, y compris ceux de la DGSE 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pertes_militaires_fran%C3%A7aises_en_op%C3%A9rations_ext%C3%A9rieures_depuis_1963</t>
+          <t>Pertes_militaires_françaises_en_opérations_extérieures_depuis_1963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,42 +526,13 @@
           <t>Décès par théâtres d'opérations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le présent tableau répertorie autant que faire se peut les décès survenus au sein des régiments relevant du Commandement des opérations spéciales et du Service Action de la DGSE, lorsque ceux-ci ont fait l'objet d'une confirmation officielle, directe ou indirecte, par voie de presse.
 Les opérations sont classées par ordre déchronologique en année de désengagement, puis par ordre déchronologique en année d'engagement.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pertes_militaires_fran%C3%A7aises_en_op%C3%A9rations_ext%C3%A9rieures_depuis_1963</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pertes_militaires_fran%C3%A7aises_en_op%C3%A9rations_ext%C3%A9rieures_depuis_1963</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pertes par an</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tableau
-Histogramme</t>
         </is>
       </c>
     </row>
